--- a/functional_module/sugar/images/asr_commands.xlsx
+++ b/functional_module/sugar/images/asr_commands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Desktop\kittenbot docs\testinghub\functional_module\sugar\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Desktop\kittenbot docs\kittenbothk-Eng\functional_module\sugar\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF1331C-9E51-4BBC-906A-8D4FF4B0235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B2D3D1-EEBC-4B4D-A81E-6C019CF9FBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B283ED6E-8815-4A56-96D8-9C8453EB4D6F}"/>
   </bookViews>
@@ -37,22 +37,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
-    <t>類別</t>
-  </si>
-  <si>
-    <t>命令詞</t>
-  </si>
-  <si>
-    <t>系統命令詞</t>
-  </si>
-  <si>
     <t>rest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>喚醒詞</t>
-  </si>
-  <si>
     <t>hey sugar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,9 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>燈控類</t>
-  </si>
-  <si>
     <t>lamp on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,9 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>動作類</t>
-  </si>
-  <si>
     <t>open door</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,9 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>詢問類</t>
-  </si>
-  <si>
     <t>check temperature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +298,34 @@
   </si>
   <si>
     <t>measure height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wake-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -462,19 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -548,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,95 +561,92 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,7 +965,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection sqref="A1:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -987,400 +978,400 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C2" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="31" t="s">
-        <v>35</v>
+      <c r="E5" s="11"/>
+      <c r="F5" s="21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="31" t="s">
-        <v>36</v>
+      <c r="C6" s="7"/>
+      <c r="D6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="31" t="s">
-        <v>37</v>
+      <c r="C7" s="7"/>
+      <c r="D7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="31" t="s">
-        <v>38</v>
+      <c r="C8" s="7"/>
+      <c r="D8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="31" t="s">
-        <v>39</v>
+      <c r="C9" s="7"/>
+      <c r="D9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="21" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="31" t="s">
-        <v>40</v>
+      <c r="C10" s="7"/>
+      <c r="D10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="31" t="s">
-        <v>41</v>
+      <c r="C11" s="7"/>
+      <c r="D11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="21" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="31" t="s">
-        <v>42</v>
+      <c r="C12" s="7"/>
+      <c r="D12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="31" t="s">
-        <v>43</v>
+      <c r="C13" s="7"/>
+      <c r="D13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="31" t="s">
-        <v>44</v>
+      <c r="C14" s="7"/>
+      <c r="D14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="31" t="s">
-        <v>45</v>
+      <c r="C15" s="7"/>
+      <c r="D15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="31" t="s">
-        <v>46</v>
+      <c r="C16" s="7"/>
+      <c r="D16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="31" t="s">
-        <v>47</v>
+      <c r="C17" s="7"/>
+      <c r="D17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="31" t="s">
-        <v>48</v>
+      <c r="C18" s="7"/>
+      <c r="D18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="21" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="31" t="s">
-        <v>49</v>
+      <c r="C19" s="7"/>
+      <c r="D19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="31" t="s">
-        <v>50</v>
+      <c r="C20" s="7"/>
+      <c r="D20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="31" t="s">
-        <v>51</v>
+      <c r="C21" s="7"/>
+      <c r="D21" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="31" t="s">
-        <v>52</v>
+      <c r="C22" s="7"/>
+      <c r="D22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="31" t="s">
-        <v>53</v>
+      <c r="C23" s="8"/>
+      <c r="D23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="31" t="s">
-        <v>54</v>
+      <c r="C24" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="31" t="s">
-        <v>55</v>
+      <c r="C25" s="31"/>
+      <c r="D25" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="31" t="s">
-        <v>56</v>
+      <c r="C26" s="9"/>
+      <c r="D26" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="31" t="s">
-        <v>57</v>
+      <c r="C27" s="9"/>
+      <c r="D27" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="31" t="s">
-        <v>58</v>
+      <c r="C28" s="9"/>
+      <c r="D28" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="31" t="s">
-        <v>59</v>
+      <c r="C29" s="9"/>
+      <c r="D29" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="31" t="s">
-        <v>60</v>
+      <c r="C30" s="9"/>
+      <c r="D30" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="31" t="s">
-        <v>61</v>
+      <c r="C31" s="10"/>
+      <c r="D31" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -1388,9 +1379,9 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="31" t="s">
-        <v>62</v>
+      <c r="E32" s="11"/>
+      <c r="F32" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -1398,9 +1389,9 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="32" t="s">
-        <v>63</v>
+      <c r="E33" s="12"/>
+      <c r="F33" s="22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
